--- a/companies.xlsx
+++ b/companies.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,7 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="35" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
-    <col width="35" customWidth="1" min="13" max="13"/>
-    <col width="35" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,7 +597,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://www.natureworksllc.com/about-natureworks/news</t>
         </is>
@@ -663,12 +659,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://www.basf.com/ch/fr/media</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://twitter.com/BASF</t>
         </is>
@@ -735,7 +731,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>http://www.novamont.com/news</t>
         </is>
@@ -807,12 +803,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://www.corbion.com/en/media</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://twitter.com/Corbion</t>
         </is>
@@ -884,7 +880,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://biomebioplastics.com/feed/</t>
         </is>
@@ -956,12 +952,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://www.danimerscientific.com/feed</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://twitter.com/DanimerScientif</t>
         </is>
@@ -1028,7 +1024,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://twitter.com/TotalEnergies</t>
         </is>
@@ -1100,12 +1096,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://www.mcgc.com#newsRelease</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>https://twitter.com/MitsubishiChem</t>
         </is>
@@ -1229,12 +1225,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://www.futerro.com/feed/</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://www.futerro.com/news-media/news/</t>
         </is>
@@ -1296,7 +1292,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://twitter.com/BioOnBioplastic</t>
         </is>
@@ -1368,12 +1364,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://www.braskem.com/europe/news</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://twitter.com/Braskem</t>
         </is>
@@ -1616,7 +1612,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>https://www.ti-films.com</t>
         </is>
@@ -1683,7 +1679,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>https://twitter.com/AmcorLimited</t>
         </is>
@@ -1755,7 +1751,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://www.erema.com/de/impressum/</t>
         </is>
@@ -1874,7 +1870,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M21" s="2" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>https://www.palsgaard.com/en/about-us/news-about-palsgaard/</t>
         </is>
@@ -1936,12 +1932,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://cjbiomaterials.com/feed/</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>https://cjbiomaterials.com/about/news/</t>
         </is>
@@ -2003,12 +1999,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://www.packaginginsights.com/news.html</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>https://twitter.com/PackagingInsight</t>
         </is>
@@ -2075,12 +2071,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>https://www.greendotbioplastics.com/home/feed/</t>
         </is>
       </c>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://www.greendotbioplastics.com/news/</t>
         </is>
@@ -2147,7 +2143,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://www.kaneka.co.jp/en/topics/</t>
         </is>
@@ -2214,12 +2210,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>https://oneworldproducts.com/feed/</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://oneworldproducts.com/news/</t>
         </is>
@@ -2338,7 +2334,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N28" s="2" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>https://twitter.com/BerryGlobal</t>
         </is>
@@ -2410,7 +2406,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>https://sanisure.com/feed</t>
         </is>
@@ -2472,7 +2468,7 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>https://twitter.com/RoquetteGroup</t>
         </is>
@@ -2549,12 +2545,12 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M31" s="2" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>https://www.basf.com/ch/fr/media</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>https://twitter.com/BASF</t>
         </is>
@@ -2631,12 +2627,12 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>https://www.verdebioresins.com/feed</t>
         </is>
       </c>
-      <c r="M32" s="2" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>https://www.verdebioresins.com/news/</t>
         </is>
@@ -2703,12 +2699,12 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="M33" s="2" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>https://global.honda/en/newsroom/?from=top_text_btn</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>https://twitter.com/Honda</t>
         </is>
@@ -2785,12 +2781,12 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>https://www.sabic.com/en/newsandmedia</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>https://twitter.com/SABIC_Careers</t>
         </is>
@@ -2909,12 +2905,12 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>https://www.rwdc-industries.com/feed/rss2</t>
         </is>
       </c>
-      <c r="M36" s="2" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>https://www.rwdc-industries.com</t>
         </is>
@@ -2981,12 +2977,12 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>https://www.genomatica.com/home/feed/</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>https://www.genomatica.com/news/</t>
         </is>
@@ -3115,7 +3111,7 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="M39" s="2" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>https://www.granulous.com/blog</t>
         </is>
@@ -3172,12 +3168,12 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>https://www.blueoceanclosures.com/feed/</t>
         </is>
       </c>
-      <c r="M40" s="2" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>https://www.blueoceanclosures.com/news/</t>
         </is>
@@ -3861,108 +3857,70 @@
           <t>2025-11-19</t>
         </is>
       </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Farrel Pomini</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N3" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M4" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M5" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N5" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L6" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L7" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N7" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N8" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M9" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N9" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L11" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M11" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N12" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M13" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N13" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M17" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N18" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M19" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M21" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L22" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M22" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M23" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N23" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D24" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L24" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M24" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M25" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L26" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M26" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N28" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L29" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N30" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M31" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N31" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L32" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M32" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M33" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N33" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M34" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N34" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L36" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M36" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L37" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M37" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M39" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L40" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M40" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D52" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D52" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/companies.xlsx
+++ b/companies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,11 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="12" max="12"/>
+    <col width="35" customWidth="1" min="13" max="13"/>
+    <col width="35" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -597,16 +601,26 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>https://www.natureworksllc.com/about-natureworks/news</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/NatureWorks</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/natureworks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Novamont</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -616,27 +630,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>https://www.basf.com</t>
+          <t>https://www.novamont.com</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Chemical giant producing ecovio and ecoflex biodegradable polymers. Develops PBAT and PBS-based bioplastics for flexible packaging, agricultural films, and compostable applications.</t>
+          <t>Italian pioneer in bioplastics producing Mater-Bi family of biodegradable and compostable biopolymers. Focuses on circular bioeconomy solutions for packaging, agriculture, and consumer goods.</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PBAT, PBAT blends, Ecoflex® (biodegradable polyester), Ecovio® (blend of Ecoflex® and PLA), PLA</t>
+          <t>Mater-Bi (starch-based bioplastics), bio-based 1,4-butanediol (BDO), biopolyesters (Origo-Bi), biolubricants (Matrol-Bi)</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, organic waste management, food contact applications, compostable consumer goods</t>
+          <t>Packaging, agriculture, retail, waste collection, automotive, urban areas, marine, food services</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -646,12 +660,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>FWB:BAS</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -659,31 +668,26 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://www.basf.com/ch/fr/media</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://twitter.com/BASF</t>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>http://www.novamont.com/news</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/basf</t>
+          <t>https://www.linkedin.com/company/novamont</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/user/BASF</t>
+          <t>https://www.youtube.com/@novamont</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Novamont</t>
+          <t>Corbion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -693,27 +697,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>https://www.novamont.com</t>
+          <t>https://www.corbion.com</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Italian pioneer in bioplastics producing Mater-Bi family of biodegradable and compostable biopolymers. Focuses on circular bioeconomy solutions for packaging, agriculture, and consumer goods.</t>
+          <t>Producer of high-purity lactic acid and lactide monomers for PLA production. Partners with Total Corbion PLA for large-scale bioplastics manufacturing.</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Mater-Bi (starch-based bioplastics), bio-based 1,4-butanediol (BDO), biopolyesters (Origo-Bi), biolubricants (Matrol-Bi)</t>
+          <t>PLA (Polylactic Acid), lactic acid and derivatives</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, retail, waste collection, automotive, urban areas, marine, food services</t>
+          <t>Packaging, food and beverage, agriculture, medical devices, electronics, home &amp; personal care, pharmaceuticals, bioplastics</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -723,7 +727,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Euronext:CRBN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -731,26 +740,31 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>http://www.novamont.com/news</t>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>https://www.corbion.com/en/media</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Corbion</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/novamont</t>
+          <t>https://www.linkedin.com/company/corbion/</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@novamont</t>
+          <t>https://www.youtube.com/@CorbionOfficial</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corbion</t>
+          <t>Biome Bioplastics</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -760,27 +774,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>https://www.corbion.com</t>
+          <t>https://www.biomebioplastics.com</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Producer of high-purity lactic acid and lactide monomers for PLA production. Partners with Total Corbion PLA for large-scale bioplastics manufacturing.</t>
+          <t>UK-based developer of biodegradable and bio-based plastics. Produces bioplastic resins for packaging, horticulture, and consumer products with enhanced environmental credentials.</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>PLA (Polylactic Acid), lactic acid and derivatives</t>
+          <t>Starch-based bioplastics, biodegradable polymers, high temperature bioplastics, custom blends</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Packaging, food and beverage, agriculture, medical devices, electronics, home &amp; personal care, pharmaceuticals, bioplastics</t>
+          <t>Packaging, flexible films, coatings, non-woven materials, agricultural products such as biodegradable tree shelters</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -790,12 +804,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Euronext:CRBN</t>
+          <t>AIM:BIOM</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -803,31 +817,26 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://www.corbion.com/en/media</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Corbion</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>https://biomebioplastics.com/feed/</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/corbion/</t>
+          <t>https://www.linkedin.com/company/biome-bioplastics</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@CorbionOfficial</t>
+          <t>https://www.youtube.com/@biomebioplastics</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Biome Bioplastics</t>
+          <t>Danimer Scientific</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -837,27 +846,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>https://www.biomebioplastics.com</t>
+          <t>https://www.danimerscientific.com</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>UK-based developer of biodegradable and bio-based plastics. Produces bioplastic resins for packaging, horticulture, and consumer products with enhanced environmental credentials.</t>
+          <t>Manufactures Nodax PHA (polyhydroxyalkanoate) biodegradable biopolymers. Develops compostable and marine-degradable solutions for single-use plastics and packaging applications.</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Starch-based bioplastics, biodegradable polymers, high temperature bioplastics, custom blends</t>
+          <t>PHA (Nodax™), PLA</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Packaging, flexible films, coatings, non-woven materials, agricultural products such as biodegradable tree shelters</t>
+          <t>Packaging, food service, agriculture, adhesives, consumer products</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -867,12 +876,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>AIM:BIOM</t>
+          <t>NASDAQ:DNMR</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -880,26 +889,31 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>https://biomebioplastics.com/feed/</t>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>https://www.danimerscientific.com/feed</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DanimerScientif</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/biome-bioplastics</t>
+          <t>https://www.linkedin.com/company/danimer-scientific</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@biomebioplastics</t>
+          <t>https://www.youtube.com/@DanimerScientific</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danimer Scientific</t>
+          <t>Total Corbion PLA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -909,27 +923,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>https://www.danimerscientific.com</t>
+          <t>https://www.total-corbion.com</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Manufactures Nodax PHA (polyhydroxyalkanoate) biodegradable biopolymers. Develops compostable and marine-degradable solutions for single-use plastics and packaging applications.</t>
+          <t>Joint venture producing PLA bioplastics at commercial scale. Operates one of the world's largest PLA manufacturing facilities in Thailand.</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>PHA (Nodax™), PLA</t>
+          <t>PLA (Polylactic Acid)</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Packaging, food service, agriculture, adhesives, consumer products</t>
+          <t>Packaging, Consumer Goods, Fibers, Food Serviceware, Automotive, 3D Printing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -939,12 +953,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NASDAQ:DNMR</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -952,31 +961,26 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>https://www.danimerscientific.com/feed</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://twitter.com/DanimerScientif</t>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/TotalEnergies</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/danimer-scientific</t>
+          <t>https://www.linkedin.com/company/totalenergies-corbion</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@DanimerScientific</t>
+          <t>https://www.youtube.com/@TotalEnergies</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Corbion PLA</t>
+          <t>Mitsubishi Chemical</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,27 +990,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>https://www.total-corbion.com</t>
+          <t>https://www.mcgc.com</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Joint venture producing PLA bioplastics at commercial scale. Operates one of the world's largest PLA manufacturing facilities in Thailand.</t>
+          <t>Produces BioPBS (polybutylene succinate) biodegradable polyester. Offers bio-based and compostable solutions for packaging, agricultural, and industrial applications.</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PLA (Polylactic Acid)</t>
+          <t>BioPBS (bio-based polybutylene succinate), DURABIO (bio-based engineering plastic from plant-derived isosorbide)</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Consumer Goods, Fibers, Food Serviceware, Automotive, 3D Printing</t>
+          <t>Packaging, consumer goods, automotive, electronics, medical, and other industries requiring durable and sustainable plastic materials</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1016,7 +1020,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TSE:4188</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1024,26 +1033,31 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>https://twitter.com/TotalEnergies</t>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mcgc.com#newsRelease</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/MitsubishiChem</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/totalenergies-corbion</t>
+          <t>https://www.linkedin.com/company/mitsubishi-chemical-corporation/</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@TotalEnergies</t>
+          <t>https://www.youtube.com/user/MitsubishiChemical</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mitsubishi Chemical</t>
+          <t>PTT MCC Biochem</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1053,27 +1067,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Kingdom of Thailand</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>https://www.mcgc.com</t>
+          <t>https://www.pttmcc.com</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Produces BioPBS (polybutylene succinate) biodegradable polyester. Offers bio-based and compostable solutions for packaging, agricultural, and industrial applications.</t>
+          <t>Thai-Japanese joint venture producing BioPBS biodegradable polyester. Manufactures bio-based succinic acid and PBS for compostable plastics applications.</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>BioPBS (bio-based polybutylene succinate), DURABIO (bio-based engineering plastic from plant-derived isosorbide)</t>
+          <t>BioPBS</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Packaging, consumer goods, automotive, electronics, medical, and other industries requiring durable and sustainable plastic materials</t>
+          <t>Packaging</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1083,12 +1097,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TSE:4188</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1096,31 +1105,16 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>https://www.mcgc.com#newsRelease</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>https://twitter.com/MitsubishiChem</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/mitsubishi-chemical-corporation/</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/user/MitsubishiChemical</t>
+          <t>https://www.linkedin.com/company/ptt-mcc-biochem-co-ltd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PTT MCC Biochem</t>
+          <t>Futerro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1130,27 +1124,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kingdom of Thailand</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>https://www.pttmcc.com</t>
+          <t>https://www.futerro.com</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Thai-Japanese joint venture producing BioPBS biodegradable polyester. Manufactures bio-based succinic acid and PBS for compostable plastics applications.</t>
+          <t>Belgian producer of PLA and lactide through proprietary technology. Develops sustainable bioplastic solutions for packaging and other applications.</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>BioPBS</t>
+          <t>PLA (polylactic acid), lactic acid, lactide</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>Packaging</t>
+          <t>Packaging, agriculture, automotive, medical, textiles</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1168,16 +1162,21 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/ptt-mcc-biochem-co-ltd</t>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.futerro.com/feed/</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>https://www.futerro.com/news-media/news/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Futerro</t>
+          <t>Bio-On</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1187,27 +1186,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>https://www.futerro.com</t>
+          <t>https://www.bio-on.it</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Belgian producer of PLA and lactide through proprietary technology. Develops sustainable bioplastic solutions for packaging and other applications.</t>
+          <t>Italian company developing PHA bioplastics from agricultural waste. Focuses on biodegradable and compostable solutions for packaging and consumer goods.</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PLA (polylactic acid), lactic acid, lactide</t>
+          <t>Polyhydroxyalkanoates (PHA)</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, automotive, medical, textiles</t>
+          <t>Packaging, agriculture, automotive, fashion, cosmetics, pharmaceuticals, electronics</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1220,26 +1219,36 @@
           <t>No</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AIM:ON</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>https://www.futerro.com/feed/</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://www.futerro.com/news-media/news/</t>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/BioOnBioplastic</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/bio-on-s-p-a-</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@BioOnBioplastic</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bio-On</t>
+          <t>Braskem</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1249,27 +1258,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>https://www.bio-on.it</t>
+          <t>https://www.braskem.com</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Italian company developing PHA bioplastics from agricultural waste. Focuses on biodegradable and compostable solutions for packaging and consumer goods.</t>
+          <t>Brazilian petrochemical company producing I'm green bio-PE from sugarcane ethanol. World's leading producer of bio-based polyethylene for packaging applications.</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Polyhydroxyalkanoates (PHA)</t>
+          <t>Bio-PE</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, automotive, fashion, cosmetics, pharmaceuticals, electronics</t>
+          <t>Packaging, Automotive, Textiles</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1279,12 +1288,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>AIM:ON</t>
+          <t>B3:BRKM5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1292,26 +1301,36 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://twitter.com/BioOnBioplastic</t>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.braskem.com/europe/news</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Braskem</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/bio-on-s-p-a-</t>
+          <t>https://www.linkedin.com/company/braskem</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@BioOnBioplastic</t>
+          <t>https://www.youtube.com/@BraskemOfficial</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/braskem</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Braskem</t>
+          <t>Cardia Bioplastics</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1321,27 +1340,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>https://www.braskem.com</t>
+          <t>https://www.cardiabioplastics.com</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Brazilian petrochemical company producing I'm green bio-PE from sugarcane ethanol. World's leading producer of bio-based polyethylene for packaging applications.</t>
+          <t>Australian manufacturer of biodegradable and compostable bioplastic resins. Develops renewable resource-based materials for packaging, food service, and agricultural films.</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Bio-PE</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Automotive, Textiles</t>
+          <t>Packaging, Waste Management</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1356,74 +1375,49 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>B3:BRKM5</t>
+          <t>ASX:CNN</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://www.braskem.com/europe/news</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Braskem</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/braskem</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@BraskemOfficial</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/braskem</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cardia Bioplastics</t>
+          <t>FKuR Kunststoff</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Compounder</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>https://www.cardiabioplastics.com</t>
+          <t>https://www.fkur.de</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Australian manufacturer of biodegradable and compostable bioplastic resins. Develops renewable resource-based materials for packaging, food service, and agricultural films.</t>
+          <t>German compounder specializing in bioplastics and biodegradable compounds. Produces Bio-Flex, Terralene, and other specialty bioplastic formulations for various applications.</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PLA, PHA, PBS, starch-based bioplastics, bio-based PE, biodegradable plastics</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Waste Management</t>
+          <t>Packaging (flexible packaging, food packaging, waste bags), agriculture (mulch films), automotive, consumer goods, medical, textiles</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1433,24 +1427,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ASX:CNN</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/fkur-kunststoff-gmbh</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FKuR Kunststoff</t>
+          <t>Biotec</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1465,22 +1459,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>https://www.fkur.de</t>
+          <t>https://www.biotec.de</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>German compounder specializing in bioplastics and biodegradable compounds. Produces Bio-Flex, Terralene, and other specialty bioplastic formulations for various applications.</t>
+          <t>German compounder producing biodegradable and bio-based plastic compounds. Develops customized bioplastic formulations for packaging, agriculture, and technical applications.</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>PLA, PHA, PBS, starch-based bioplastics, bio-based PE, biodegradable plastics</t>
+          <t>PLA, potato starch-based polymers, other biologically sourced polymers</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>Packaging (flexible packaging, food packaging, waste bags), agriculture (mulch films), automotive, consumer goods, medical, textiles</t>
+          <t>Packaging, pharmaceuticals, cosmetics, food industry, agriculture, healthcare, automotive</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1500,44 +1494,44 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/fkur-kunststoff-gmbh</t>
+          <t>https://www.linkedin.com/company/biotec-bioplastics/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biotec</t>
+          <t>Taghleef Industries</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Compounder</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>https://www.biotec.de</t>
+          <t>https://www.ti-films.com</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>German compounder producing biodegradable and bio-based plastic compounds. Develops customized bioplastic formulations for packaging, agriculture, and technical applications.</t>
+          <t>Global film manufacturer producing bio-based BOPP films. Develops sustainable packaging solutions using renewable and recycled materials.</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>PLA, potato starch-based polymers, other biologically sourced polymers</t>
+          <t>PLA</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Packaging, pharmaceuticals, cosmetics, food industry, agriculture, healthcare, automotive</t>
+          <t>Packaging, Labels, Graphic Arts</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1555,16 +1549,21 @@
           <t>2025-10-30</t>
         </is>
       </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ti-films.com</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/biotec-bioplastics/</t>
+          <t>https://www.linkedin.com/company/taghleef-industries/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Taghleef Industries</t>
+          <t>Amcor</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1574,27 +1573,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>https://www.ti-films.com</t>
+          <t>https://www.amcor.com</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Global film manufacturer producing bio-based BOPP films. Develops sustainable packaging solutions using renewable and recycled materials.</t>
+          <t>Global packaging leader developing recyclable and bio-based packaging solutions. Invests in sustainable materials including bioplastics for flexible and rigid packaging.</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PLA</t>
+          <t>PLA, bio-PE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Labels, Graphic Arts</t>
+          <t>Packaging, Healthcare</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1604,7 +1603,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NYSE:AMCR</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1612,51 +1616,61 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://www.ti-films.com</t>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/AmcorLimited</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/taghleef-industries/</t>
+          <t>https://www.linkedin.com/company/amcor</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@AmcorPackaging</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amcorlimited</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amcor</t>
+          <t>EREMA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Equipment Manufacturer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>https://www.amcor.com</t>
+          <t>https://www.erema.com</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Global packaging leader developing recyclable and bio-based packaging solutions. Invests in sustainable materials including bioplastics for flexible and rigid packaging.</t>
+          <t>Austrian manufacturer of plastic recycling equipment and technologies. Develops machinery for processing post-consumer and post-industrial bioplastic waste.</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>PLA, bio-PE</t>
+          <t>Biopolymers, PET, PE, PP, PS, PC, PA 6.0</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Healthcare</t>
+          <t>Packaging, automotive, textiles, medical, agriculture, plastics processing industry</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1666,12 +1680,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NYSE:AMCR</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1679,31 +1688,16 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>https://twitter.com/AmcorLimited</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/amcor</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@AmcorPackaging</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/amcorlimited</t>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>https://www.erema.com/de/impressum/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EREMA</t>
+          <t>Coperion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1713,32 +1707,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>https://www.erema.com</t>
+          <t>https://www.coperion.com</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Austrian manufacturer of plastic recycling equipment and technologies. Develops machinery for processing post-consumer and post-industrial bioplastic waste.</t>
+          <t>German manufacturer of compounding and extrusion systems. Provides processing equipment for bioplastic production, compounding, and material handling.</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Biopolymers, PET, PE, PP, PS, PC, PA 6.0</t>
+          <t>PET, polyolefins, film, rigid plastics</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Packaging, automotive, textiles, medical, agriculture, plastics processing industry</t>
+          <t>Plastics, chemical, food processing, pharmaceutical, aluminum, recycling</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1751,51 +1745,56 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://www.erema.com/de/impressum/</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/coperion</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/user/CoperionGroup</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Coperion</t>
+          <t>Palsgaard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Equipment Manufacturer</t>
+          <t>Additive Producer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>https://www.coperion.com</t>
+          <t>https://www.palsgaard.com</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>German manufacturer of compounding and extrusion systems. Provides processing equipment for bioplastic production, compounding, and material handling.</t>
+          <t>Danish producer of emulsifiers and functional additives. Develops bio-based additives for improving bioplastic processing and performance characteristics.</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>PET, polyolefins, film, rigid plastics</t>
+          <t>Plant-based emulsifiers and stabilizers, sustainable polymer additives including anti-static and anti-fog agents</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Plastics, chemical, food processing, pharmaceutical, aluminum, recycling</t>
+          <t>Food, packaging, polymers/plastics, personal care</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1808,51 +1807,51 @@
           <t>2025-10-30</t>
         </is>
       </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>https://www.palsgaard.com/en/about-us/news-about-palsgaard/</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/coperion</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/user/CoperionGroup</t>
+          <t>https://www.linkedin.com/company/palsgaard</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Palsgaard</t>
+          <t>CJ Biomaterials</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Additive Producer</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>https://www.palsgaard.com</t>
+          <t>https://cjbiomaterials.com</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Danish producer of emulsifiers and functional additives. Develops bio-based additives for improving bioplastic processing and performance characteristics.</t>
+          <t>CJ Biomaterials, a business unit of CJ CheilJedang headquartered in Seoul, South Korea, is a leading manufacturer of polyhydroxyalkanoate (PHA) biopolymers. They produce proprietary PHACT™ biopolymers using a unique fermentation process that converts plant sugars into biodegradable and compostable plastics. The company serves global markets with applications in packaging, consumer goods, food service, and nonwovens, focusing on sustainable, circular bioeconomy solutions.</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Plant-based emulsifiers and stabilizers, sustainable polymer additives including anti-static and anti-fog agents</t>
+          <t>PHA (polyhydroxyalkanoates), including amorphous and semi-crystalline PHAs</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>Food, packaging, polymers/plastics, personal care</t>
+          <t>Packaging, consumer goods, food service, nonwovens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1870,51 +1869,56 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://www.palsgaard.com/en/about-us/news-about-palsgaard/</t>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>https://cjbiomaterials.com/feed/</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>https://cjbiomaterials.com/about/news/</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/palsgaard</t>
+          <t>https://www.linkedin.com/company/cj-biomaterials</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CJ Biomaterials</t>
+          <t>Packaging Insights</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>https://cjbiomaterials.com</t>
+          <t>https://www.packaginginsights.com</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>CJ Biomaterials, a business unit of CJ CheilJedang headquartered in Seoul, South Korea, is a leading manufacturer of polyhydroxyalkanoate (PHA) biopolymers. They produce proprietary PHACT™ biopolymers using a unique fermentation process that converts plant sugars into biodegradable and compostable plastics. The company serves global markets with applications in packaging, consumer goods, food service, and nonwovens, focusing on sustainable, circular bioeconomy solutions.</t>
+          <t>Packaging Insights is a digital platform specializing in providing comprehensive news, insights, and developments related to packaging, including bioplastics. It serves as an information resource tracking the latest trends, innovations, and regulatory discussions in the bioplastic packaging sector, helping industry stakeholders stay informed about sustainable packaging solutions and market dynamics.</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>PHA (polyhydroxyalkanoates), including amorphous and semi-crystalline PHAs</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Packaging, consumer goods, food service, nonwovens</t>
+          <t>Packaging industry, with a focus on bioplastic packaging trends and innovations</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1932,56 +1936,61 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>https://cjbiomaterials.com/feed/</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://cjbiomaterials.com/about/news/</t>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>https://www.packaginginsights.com/news.html</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/PackagingInsight</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/cj-biomaterials</t>
+          <t>https://www.linkedin.com/company/packaging-insights</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@PackagingInsights</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Packaging Insights</t>
+          <t>Green Dot Bioplastics</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>https://www.packaginginsights.com</t>
+          <t>https://www.greendotbioplastics.com</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Packaging Insights is a digital platform specializing in providing comprehensive news, insights, and developments related to packaging, including bioplastics. It serves as an information resource tracking the latest trends, innovations, and regulatory discussions in the bioplastic packaging sector, helping industry stakeholders stay informed about sustainable packaging solutions and market dynamics.</t>
+          <t>Green Dot Bioplastics is a material science company founded in 2011, specializing in the development and production of sustainable bioplastic materials. The company offers a diverse portfolio including wood plastic composites, starch biocomposites, biodegradable composites, and compostable elastomers, aiming to reduce reliance on petroleum-based plastics and minimize environmental impact. Green Dot focuses on innovation in plant-based materials, supporting product designers and manufacturers ...</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>PBAT, PBS, PLA, thermoplastic starch</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>Packaging industry, with a focus on bioplastic packaging trends and innovations</t>
+          <t>Packaging, consumer goods, toys, fashion, 3D printing</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1999,31 +2008,26 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://www.packaginginsights.com/news.html</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>https://twitter.com/PackagingInsight</t>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.greendotbioplastics.com/home/feed/</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>https://www.greendotbioplastics.com/news/</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/packaging-insights</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@PackagingInsights</t>
+          <t>https://www.linkedin.com/company/green-dot-bioplastics</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Green Dot Bioplastics</t>
+          <t>Kaneka Corporation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2033,27 +2037,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>https://www.greendotbioplastics.com</t>
+          <t>https://www.kaneka.co.jp/en/</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Green Dot Bioplastics is a material science company founded in 2011, specializing in the development and production of sustainable bioplastic materials. The company offers a diverse portfolio including wood plastic composites, starch biocomposites, biodegradable composites, and compostable elastomers, aiming to reduce reliance on petroleum-based plastics and minimize environmental impact. Green Dot focuses on innovation in plant-based materials, supporting product designers and manufacturers ...</t>
+          <t>Kaneka Corporation is a Japanese chemical company specializing in a wide range of products including chemicals, functional plastics, and bioplastics. Its bioplastic division produces Kaneka PHBH™, a 100% biomass-derived, biodegradable polymer that decomposes even in marine environments. Kaneka's bioplastics are used as sustainable alternatives to single-use plastics such as straws, shopping bags, and food packaging, contributing to marine pollution reduction.</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>PBAT, PBS, PLA, thermoplastic starch</t>
+          <t>PHBH (poly(3-hydroxybutyrate-co-3-hydroxyhexanoate))</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>Packaging, consumer goods, toys, fashion, 3D printing</t>
+          <t>Packaging, food service (straws, cups, cutlery), retail (shopping bags), marine environment applications</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2063,7 +2067,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TSE:4118</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2071,26 +2080,21 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>https://www.greendotbioplastics.com/home/feed/</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://www.greendotbioplastics.com/news/</t>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.kaneka.co.jp/en/topics/</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/green-dot-bioplastics</t>
+          <t>https://www.linkedin.com/company/kaneka-corporation/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kaneka Corporation</t>
+          <t>One World Products</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2100,27 +2104,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>https://www.kaneka.co.jp/en/</t>
+          <t>https://oneworldproducts.com</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Kaneka Corporation is a Japanese chemical company specializing in a wide range of products including chemicals, functional plastics, and bioplastics. Its bioplastic division produces Kaneka PHBH™, a 100% biomass-derived, biodegradable polymer that decomposes even in marine environments. Kaneka's bioplastics are used as sustainable alternatives to single-use plastics such as straws, shopping bags, and food packaging, contributing to marine pollution reduction.</t>
+          <t>One World Products, soon to be renamed Isiah Enterprises, is a Nevada-based public company specializing in renewable and sustainable materials. Through its Eco Bio Plastics division, it produces biodegradable and compostable bioplastics made from plant-based feedstocks such as corn starch, sugar, rubber, cellulose, and hemp. The company focuses on application-ready biofiber pellets and powders for automotive interiors, packaging, and industrial goods, aiming to replace petroleum-based plastic...</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>PHBH (poly(3-hydroxybutyrate-co-3-hydroxyhexanoate))</t>
+          <t>Corn starch, sugar-based bioplastics, rubber, cellulose, hemp, plant-based biofibers</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>Packaging, food service (straws, cups, cutlery), retail (shopping bags), marine environment applications</t>
+          <t>Packaging (food containers, utensils, films), automotive components, reusable logistics products, industrial goods</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2135,7 +2139,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>TSE:4118</t>
+          <t>OTCQB:OWPC</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2143,21 +2147,21 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>https://www.kaneka.co.jp/en/topics/</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/kaneka-corporation/</t>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>https://oneworldproducts.com/feed/</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>https://oneworldproducts.com/news/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>One World Products</t>
+          <t>Isiah Enterprises</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2172,22 +2176,22 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>https://oneworldproducts.com</t>
+          <t>https://owpv.com</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>One World Products, soon to be renamed Isiah Enterprises, is a Nevada-based public company specializing in renewable and sustainable materials. Through its Eco Bio Plastics division, it produces biodegradable and compostable bioplastics made from plant-based feedstocks such as corn starch, sugar, rubber, cellulose, and hemp. The company focuses on application-ready biofiber pellets and powders for automotive interiors, packaging, and industrial goods, aiming to replace petroleum-based plastic...</t>
+          <t>Isiah Enterprises, formerly Eco Bio Plastics and a division of One World Products, Inc., is a U.S.-based manufacturer specializing in renewable bioplastics and sustainable materials. The company produces compostable bioplastics used in food packaging, automotive parts, and consumer goods, leveraging proprietary pelletization technology to convert biomass and other renewable feedstocks into advanced composites. It focuses on scaling innovation in green manufacturing and expanding applications ...</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Corn starch, sugar-based bioplastics, rubber, cellulose, hemp, plant-based biofibers</t>
+          <t>Plant-based compostable bioplastics, specialty biopolymers, advanced composites from biomass, rubber, cellulose</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>Packaging (food containers, utensils, films), automotive components, reusable logistics products, industrial goods</t>
+          <t>Packaging (food containers, utensils, films), automotive components, consumer goods, reusable logistics products</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2202,34 +2206,24 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>OTCQB:OWPC</t>
+          <t>OTC: OWPC</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>https://oneworldproducts.com/feed/</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>https://oneworldproducts.com/news/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Isiah Enterprises</t>
+          <t>Berry Global</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2239,54 +2233,74 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>https://owpv.com</t>
+          <t>https://www.berryglobal.com</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Isiah Enterprises, formerly Eco Bio Plastics and a division of One World Products, Inc., is a U.S.-based manufacturer specializing in renewable bioplastics and sustainable materials. The company produces compostable bioplastics used in food packaging, automotive parts, and consumer goods, leveraging proprietary pelletization technology to convert biomass and other renewable feedstocks into advanced composites. It focuses on scaling innovation in green manufacturing and expanding applications ...</t>
+          <t>Berry Global Group, Inc. is a global manufacturer and marketer of plastic packaging products, specializing in innovative packaging and engineered products with a strong focus on sustainability and circular economy principles. The company produces a wide range of plastic packaging components, including bottles, containers, flexible films, and compostable wipes, serving thousands of major brands worldwide. Berry Global has integrated biobased plastics such as bio-polyethylene and bio-polypropyl...</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Plant-based compostable bioplastics, specialty biopolymers, advanced composites from biomass, rubber, cellulose</t>
+          <t>Biobased-polyethylene (bio-PE), biobased-polypropylene (bio-PP), compostable plastics certified to EN 13432</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>Packaging (food containers, utensils, films), automotive components, consumer goods, reusable logistics products</t>
+          <t>Packaging, healthcare, food service, agriculture, consumer goods, personal care, and industrial markets</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>OTC: OWPC</t>
+          <t>NYSE:BERY</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/BerryGlobal</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/berryglobal</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@BerryGlobal</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/berryglobal</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Berry Global</t>
+          <t>SaniSure</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2296,27 +2310,27 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>https://www.berryglobal.com</t>
+          <t>https://sanisure.com</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Berry Global Group, Inc. is a global manufacturer and marketer of plastic packaging products, specializing in innovative packaging and engineered products with a strong focus on sustainability and circular economy principles. The company produces a wide range of plastic packaging components, including bottles, containers, flexible films, and compostable wipes, serving thousands of major brands worldwide. Berry Global has integrated biobased plastics such as bio-polyethylene and bio-polypropyl...</t>
+          <t>SaniSure is a global leader in designing, developing, and manufacturing single-use solutions for the bioprocessing industry, specializing in custom assemblies, bottles, tubing, fittings, and integrated systems for aseptic transfer, mixing, filling, and storage. Their products are engineered to reduce contamination risk, eliminate cleaning validation, and protect product integrity in critical biopharmaceutical applications. SaniSure offers both off-the-shelf and custom-fabricated solutions usi...</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Biobased-polyethylene (bio-PE), biobased-polypropylene (bio-PP), compostable plastics certified to EN 13432</t>
+          <t>Polypropylene, polyethylene, PVDF, polysulfone, fluoropolymers, polycarbonate, PET, PC</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>Packaging, healthcare, food service, agriculture, consumer goods, personal care, and industrial markets</t>
+          <t>Medical, biopharmaceutical, vaccine manufacturing, cell and gene therapy</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2324,71 +2338,56 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NYSE:BERY</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>https://twitter.com/BerryGlobal</t>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>https://sanisure.com/feed</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/berryglobal</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@BerryGlobal</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/berryglobal</t>
+          <t>https://www.linkedin.com/company/sanisure</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SaniSure</t>
+          <t>Roquette Frères</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>https://sanisure.com</t>
+          <t>https://www.roquette.com</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>SaniSure is a global leader in designing, developing, and manufacturing single-use solutions for the bioprocessing industry, specializing in custom assemblies, bottles, tubing, fittings, and integrated systems for aseptic transfer, mixing, filling, and storage. Their products are engineered to reduce contamination risk, eliminate cleaning validation, and protect product integrity in critical biopharmaceutical applications. SaniSure offers both off-the-shelf and custom-fabricated solutions usi...</t>
+          <t>Roquette Frères is a global leader in plant-based ingredients, offering innovative solutions for various industries. They produce over 650 by-products from starch extracted from corn, wheat, potatoes, and peas. Their bioplastic-related activities focus on sustainable materials like biodegradable plastics and recyclable plastics.</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Polypropylene, polyethylene, PVDF, polysulfone, fluoropolymers, polycarbonate, PET, PC</t>
+          <t>Starch-based bioplastics</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>Medical, biopharmaceutical, vaccine manufacturing, cell and gene therapy</t>
+          <t>Packaging, Automotive, Textiles</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2406,21 +2405,31 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>https://sanisure.com/feed</t>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/RoquetteGroup</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/sanisure</t>
+          <t>https://www.linkedin.com/company/roquette/</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@RoquetteGroup</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/roquettegroup</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Roquette Frères</t>
+          <t>BASF SE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2430,27 +2439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>https://www.roquette.com</t>
+          <t>https://www.basf.com</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Roquette Frères is a global leader in plant-based ingredients, offering innovative solutions for various industries. They produce over 650 by-products from starch extracted from corn, wheat, potatoes, and peas. Their bioplastic-related activities focus on sustainable materials like biodegradable plastics and recyclable plastics.</t>
+          <t>BASF SE is the world's largest chemical producer headquartered in Ludwigshafen, Germany, with extensive global operations. The company specializes in bioplastics such as Ecoflex and Ecovio, which are certified compostable polymers used in various applications including packaging and agricultural films. BASF focuses on sustainable plastic solutions, including biodegradable and bio-based polymers, and actively develops technologies for plastic waste management and recycling.</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Starch-based bioplastics</t>
+          <t>PBAT, PBAT blends, Ecoflex (fossil-based compostable polymer), Ecovio (compostable polymer blend of Ecoflex and PLA), PLA</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Automotive, Textiles</t>
+          <t>Packaging (organic waste bags, fruit and vegetable bags, carrier bags, compostable packaging), Agriculture (mulch films), Injection molding products, Coffee capsules</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2460,7 +2469,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>FWB:BAS</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2468,31 +2482,36 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>https://twitter.com/RoquetteGroup</t>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>https://www.basf.com/ch/fr/media</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/BASF</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/roquette/</t>
+          <t>https://www.linkedin.com/company/basf</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@RoquetteGroup</t>
+          <t>https://www.youtube.com/@BASF</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/roquettegroup</t>
+          <t>https://www.instagram.com/basf</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BASF SE</t>
+          <t>Verde Bioresins</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2502,27 +2521,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>https://www.basf.com</t>
+          <t>https://www.verdebioresins.com</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>BASF SE is the world's largest chemical producer headquartered in Ludwigshafen, Germany, with extensive global operations. The company specializes in bioplastics such as Ecoflex and Ecovio, which are certified compostable polymers used in various applications including packaging and agricultural films. BASF focuses on sustainable plastic solutions, including biodegradable and bio-based polymers, and actively develops technologies for plastic waste management and recycling.</t>
+          <t>Verde Bioresins, founded in 2020 and headquartered in California, is a full-service bioplastics company specializing in the development and manufacturing of PolyEarthylene™, a proprietary bio-based, recyclable, and landfill-biodegradable resin. Their technology offers a sustainable alternative to traditional polyethylene and polypropylene, designed for both single-use and durable applications, and compatible with existing plastic processing equipment.</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>PBAT, PBAT blends, Ecoflex (fossil-based compostable polymer), Ecovio (compostable polymer blend of Ecoflex and PLA), PLA</t>
+          <t>PolyEarthylene (a bio-based polyolefin resin)</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>Packaging (organic waste bags, fruit and vegetable bags, carrier bags, compostable packaging), Agriculture (mulch films), Injection molding products, Coffee capsules</t>
+          <t>Packaging, food service, consumer goods, landscaping, and other general applications requiring sustainable plastic alternatives</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2537,74 +2556,64 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>FWB:BAS</t>
+          <t>TLGY</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://www.basf.com/ch/fr/media</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>https://twitter.com/BASF</t>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>https://www.verdebioresins.com/feed</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>https://www.verdebioresins.com/news/</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/basf</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@BASF</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/basf</t>
+          <t>https://www.linkedin.com/company/verde-bioresins</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Verde Bioresins</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>https://www.verdebioresins.com</t>
+          <t>https://global.honda/</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Verde Bioresins, founded in 2020 and headquartered in California, is a full-service bioplastics company specializing in the development and manufacturing of PolyEarthylene™, a proprietary bio-based, recyclable, and landfill-biodegradable resin. Their technology offers a sustainable alternative to traditional polyethylene and polypropylene, designed for both single-use and durable applications, and compatible with existing plastic processing equipment.</t>
+          <t>Honda is a Japanese multinational company primarily known for automotive and mobility products. It is actively involved in developing and applying bioplastic technologies, including the use of bio-based engineering plastics like Durabio for motorcycle bodywork and windshields, and pioneering chemical sorting technology to recycle automotive plastics with high purity. Honda also explores innovative bioplastic materials such as algae-based bioplastics and collaborates on biobased thermoplastics...</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>PolyEarthylene (a bio-based polyolefin resin)</t>
+          <t>Bio-based engineering plastic (Durabio, isosorbide-based), biobased thermoplastics (UBQ), algae-derived bioplastics</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>Packaging, food service, consumer goods, landscaping, and other general applications requiring sustainable plastic alternatives</t>
+          <t>Automotive (motorcycles, automotive parts), mobility, recycling</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2619,7 +2628,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>TLGY</t>
+          <t>TSE:7267</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2627,56 +2636,66 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>https://www.verdebioresins.com/feed</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>https://www.verdebioresins.com/news/</t>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>https://global.honda/en/newsroom/?from=top_text_btn</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Honda</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/verde-bioresins</t>
+          <t>https://www.linkedin.com/company/honda/</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@Honda</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/honda/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>SABIC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>https://global.honda/</t>
+          <t>https://www.sabic.com/en</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>Honda is a Japanese multinational company primarily known for automotive and mobility products. It is actively involved in developing and applying bioplastic technologies, including the use of bio-based engineering plastics like Durabio for motorcycle bodywork and windshields, and pioneering chemical sorting technology to recycle automotive plastics with high purity. Honda also explores innovative bioplastic materials such as algae-based bioplastics and collaborates on biobased thermoplastics...</t>
+          <t>SABIC is a global leader in chemicals, plastics, and agri-nutrients, headquartered in Riyadh. The company produces a wide range of products, including engineering plastics and derivatives, with a strong focus on innovation and sustainability. While SABIC is best known for its petrochemicals, it has also developed bio-based and renewable solutions, such as certified renewable polyolefins, as part of its commitment to sustainable materials.</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Bio-based engineering plastic (Durabio, isosorbide-based), biobased thermoplastics (UBQ), algae-derived bioplastics</t>
+          <t>Bio-based polyolefins (e.g., bio-PE, bio-PP), engineering plastics (potentially including bio-based variants)</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>Automotive (motorcycles, automotive parts), mobility, recycling</t>
+          <t>Packaging, automotive, electrical and electronics, medical devices, construction, agriculture</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2691,7 +2710,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>TSE:7267</t>
+          <t>Tadawul:2010</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2699,66 +2718,61 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://global.honda/en/newsroom/?from=top_text_btn</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Honda</t>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>https://www.sabic.com/en/newsandmedia</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/SABIC_Careers</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/honda/</t>
+          <t>https://www.linkedin.com/company/sabic</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@Honda</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/honda/</t>
+          <t>https://www.youtube.com/@SABIC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SABIC</t>
+          <t>Monash University</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>University</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>https://www.sabic.com/en</t>
+          <t>https://www.monash.edu</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>SABIC is a global leader in chemicals, plastics, and agri-nutrients, headquartered in Riyadh. The company produces a wide range of products, including engineering plastics and derivatives, with a strong focus on innovation and sustainability. While SABIC is best known for its petrochemicals, it has also developed bio-based and renewable solutions, such as certified renewable polyolefins, as part of its commitment to sustainable materials.</t>
+          <t>Monash University researchers have developed customizable bioplastic films using polyhydroxyalkanoates (PHA) produced by soil microbes fed on food waste sugars. Their technology enables tunable, biodegradable, and compostable films with properties suitable for packaging and medical applications, aiming to replace conventional plastics with sustainable alternatives.</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Bio-based polyolefins (e.g., bio-PE, bio-PP), engineering plastics (potentially including bio-based variants)</t>
+          <t>Polyhydroxyalkanoates (PHA)</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>Packaging, automotive, electrical and electronics, medical devices, construction, agriculture</t>
+          <t>Packaging, Medical, Agriculture</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2768,12 +2782,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Tadawul:2010</t>
+          <t>ASX:MQG</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2781,61 +2795,61 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://www.sabic.com/en/newsandmedia</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>https://twitter.com/SABIC_Careers</t>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/MonashUni</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/sabic</t>
+          <t>https://www.linkedin.com/school/monash-university</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/@SABIC</t>
+          <t>https://www.youtube.com/@MonashUniversity</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/monashuni</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Monash University</t>
+          <t>RWDC Industries</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>https://www.monash.edu</t>
+          <t>https://www.rwdc-industries.com</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>Monash University researchers have developed customizable bioplastic films using polyhydroxyalkanoates (PHA) produced by soil microbes fed on food waste sugars. Their technology enables tunable, biodegradable, and compostable films with properties suitable for packaging and medical applications, aiming to replace conventional plastics with sustainable alternatives.</t>
+          <t>RWDC Industries is a bioplastics manufacturer founded in 2015 and headquartered in Athens, Georgia. The company produces biodegradable polymers based on polyhydroxyalkanoate (PHA) technology using renewable feedstocks such as waste cooking oil. RWDC's PHA products, marketed under the brand Solon®, are fully biodegradable in soil, water, and marine environments and are designed to replace conventional single-use plastics in packaging and food service applications.</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Polyhydroxyalkanoates (PHA)</t>
+          <t>Polyhydroxyalkanoate (PHA)</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Medical, Agriculture</t>
+          <t>Packaging, food service, consumer goods, single-use plastics such as cutlery, straws, cup lids, diapers</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2850,19 +2864,39 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rwdc-industries.com/feed/rss2</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rwdc-industries.com</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/rwdc-industries</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@rwdcindustries</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RWDC Industries</t>
+          <t>Genomatica</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2872,22 +2906,22 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>https://www.rwdc-industries.com</t>
+          <t>https://www.genomatica.com</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>RWDC Industries is a bioplastics manufacturer founded in 2015 and headquartered in Athens, Georgia. The company produces biodegradable polymers based on polyhydroxyalkanoate (PHA) technology using renewable feedstocks such as waste cooking oil. RWDC's PHA products, marketed under the brand Solon®, are fully biodegradable in soil, water, and marine environments and are designed to replace conventional single-use plastics in packaging and food service applications.</t>
+          <t>Genomatica is a biotechnology company specializing in the development and licensing of biological manufacturing processes for sustainable chemicals and materials. The company focuses on producing plant-based alternatives to fossil fuel-derived chemicals, such as 1,4-Butanediol (BDO), which are used in bioplastics and other applications. Genomatica partners with major brands to enable more sustainable production across industries.</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Polyhydroxyalkanoate (PHA)</t>
+          <t>BDO (1,4-Butanediol), Butadiene</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>Packaging, food service, consumer goods, single-use plastics such as cutlery, straws, cup lids, diapers</t>
+          <t>Textiles, Packaging, Personal Care, Automotive, Cosmetics</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2905,61 +2939,56 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>https://www.rwdc-industries.com/feed/rss2</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://www.rwdc-industries.com</t>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.genomatica.com/home/feed/</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>https://www.genomatica.com/news/</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/rwdc-industries</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@rwdcindustries</t>
+          <t>https://www.linkedin.com/company/genomatica</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Genomatica</t>
+          <t>UPM Biochemicals</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>https://www.genomatica.com</t>
+          <t>https://www.upmbiochemicals.com</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>Genomatica is a biotechnology company specializing in the development and licensing of biological manufacturing processes for sustainable chemicals and materials. The company focuses on producing plant-based alternatives to fossil fuel-derived chemicals, such as 1,4-Butanediol (BDO), which are used in bioplastics and other applications. Genomatica partners with major brands to enable more sustainable production across industries.</t>
+          <t>UPM Biochemicals is a division of UPM-Kymmene Oyj specializing in wood-based renewable biochemicals, including bio-based glycols and functional fillers. It produces sustainable, drop-in bio-based monoethylene glycol (BioMEG) used to create partially bio-based PET plastics, aiming to reduce fossil resource dependency and carbon footprint. UPM is building the world’s first industrial-scale biorefinery in Leuna, Germany, to commercialize these next-generation biochemicals.</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>BDO (1,4-Butanediol), Butadiene</t>
+          <t>Bio-Monoethylene Glycol (BioMEG), Bio-Monopropylene Glycol (BioMPG), Renewable Functional Fillers, wood-based bio-PET components</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>Textiles, Packaging, Personal Care, Automotive, Cosmetics</t>
+          <t>Packaging (including pharmaceutical packaging), plastics, rubber, cosmetics, personal care, durable goods</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2972,31 +3001,31 @@
           <t>No</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>HEL:UPM1V</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>https://www.genomatica.com/home/feed/</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://www.genomatica.com/news/</t>
-        </is>
-      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/genomatica</t>
+          <t>https://www.linkedin.com/company/upmbiochemicals</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@UPMBiochemicals</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UPM Biochemicals</t>
+          <t>Granulous</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3011,22 +3040,22 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>https://www.upmbiochemicals.com</t>
+          <t>https://www.granulous.com</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>UPM Biochemicals is a division of UPM-Kymmene Oyj specializing in wood-based renewable biochemicals, including bio-based glycols and functional fillers. It produces sustainable, drop-in bio-based monoethylene glycol (BioMEG) used to create partially bio-based PET plastics, aiming to reduce fossil resource dependency and carbon footprint. UPM is building the world’s first industrial-scale biorefinery in Leuna, Germany, to commercialize these next-generation biochemicals.</t>
+          <t>Granulous is a Finnish startup that produces high-performance, biodegradable bioplastic alternatives made from spent grains, a byproduct of the brewing industry. Their bio-composite material is home compostable, scalable, and designed to replace conventional plastics in short-life applications such as packaging, consumer goods, and agricultural products. Granulous materials are compatible with standard injection molding machinery, facilitating easy adoption.</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Bio-Monoethylene Glycol (BioMEG), Bio-Monopropylene Glycol (BioMPG), Renewable Functional Fillers, wood-based bio-PET components</t>
+          <t>Spent grains-based biocomposite (agricultural waste-derived bioplastic)</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>Packaging (including pharmaceutical packaging), plastics, rubber, cosmetics, personal care, durable goods</t>
+          <t>Packaging, consumer goods, agriculture (e.g., plant pots, tree guards, viticulture products), short-life plastic products</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3039,61 +3068,51 @@
           <t>No</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>HEL:UPM1V</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/upmbiochemicals</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@UPMBiochemicals</t>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.granulous.com/blog</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Granulous</t>
+          <t>Blue Ocean Closures</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>https://www.granulous.com</t>
+          <t>https://www.blueoceanclosures.com</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>Granulous is a Finnish startup that produces high-performance, biodegradable bioplastic alternatives made from spent grains, a byproduct of the brewing industry. Their bio-composite material is home compostable, scalable, and designed to replace conventional plastics in short-life applications such as packaging, consumer goods, and agricultural products. Granulous materials are compatible with standard injection molding machinery, facilitating easy adoption.</t>
+          <t>Blue Ocean Closures is a Swedish technology company focused on developing fiber-based closures as sustainable alternatives to plastic caps. Their proprietary technology enables high-volume production of biodegradable, recyclable screw caps from cellulose fibers, offering significant reductions in energy use and carbon footprint compared to traditional plastic molding. The company specializes in drop-in solutions for the packaging industry, particularly for beverage and liquid carton applicati...</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Spent grains-based biocomposite (agricultural waste-derived bioplastic)</t>
+          <t>Cellulose fibers (from sustainably managed forests), biobased additives</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>Packaging, consumer goods, agriculture (e.g., plant pots, tree guards, viticulture products), short-life plastic products</t>
+          <t>Packaging, Beverage</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3111,51 +3130,61 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://www.granulous.com/blog</t>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>https://www.blueoceanclosures.com/feed/</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>https://www.blueoceanclosures.com/news/</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/blue-ocean-closures</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Blue Ocean Closures</t>
+          <t>Teknor Apex</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Compounder</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>https://www.blueoceanclosures.com</t>
+          <t>https://www.teknorapex.com</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Blue Ocean Closures is a Swedish technology company focused on developing fiber-based closures as sustainable alternatives to plastic caps. Their proprietary technology enables high-volume production of biodegradable, recyclable screw caps from cellulose fibers, offering significant reductions in energy use and carbon footprint compared to traditional plastic molding. The company specializes in drop-in solutions for the packaging industry, particularly for beverage and liquid carton applicati...</t>
+          <t>Teknor Apex is a leading custom compounder specializing in sustainable polymer solutions, including bioplastics and bio-based materials. The company offers a broad portfolio of thermoplastic elastomers, colorants, and functional concentrates designed for biodegradable and bio-based applications, with a focus on supporting circular economy goals.</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Cellulose fibers (from sustainably managed forests), biobased additives</t>
+          <t>PLA, PHA, Bio-based polyesters, PETek®</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Beverage</t>
+          <t>Packaging, Consumer, Automotive, Medical, Industrial</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3165,34 +3194,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>https://www.blueoceanclosures.com/feed/</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://www.blueoceanclosures.com/news/</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/blue-ocean-closures</t>
+          <t>https://www.linkedin.com/company/teknor-apex</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@teknorapex</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Teknor Apex</t>
+          <t>Angstrom Group</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Compounder</t>
+          <t>Equipment Manufacturer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3202,27 +3226,27 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>https://www.teknorapex.com</t>
+          <t>https://angstromtechnology.com</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>Teknor Apex is a leading custom compounder specializing in sustainable polymer solutions, including bioplastics and bio-based materials. The company offers a broad portfolio of thermoplastic elastomers, colorants, and functional concentrates designed for biodegradable and bio-based applications, with a focus on supporting circular economy goals.</t>
+          <t>Angstrom Group specializes in designing, building, and installing modular cleanrooms tailored for various industries including plastics, biopharmaceuticals, and medical research. Their cleanrooms support controlled environments essential for high-quality plastic manufacturing and biopharma production, offering customizable solutions such as HardWall and RigidWall cleanrooms with ISO Class 5-8 classifications.</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>PLA, PHA, Bio-based polyesters, PETek®</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Consumer, Automotive, Medical, Industrial</t>
+          <t>Biopharmaceutical, plastics manufacturing, medical research, automotive, aerospace</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3237,49 +3261,44 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/teknor-apex</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@teknorapex</t>
+          <t>https://www.linkedin.com/company/angstrom-technology/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Angstrom Group</t>
+          <t>NaturePlast</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Equipment Manufacturer</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>https://angstromtechnology.com</t>
+          <t>https://natureplast.eu/en/</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Angstrom Group specializes in designing, building, and installing modular cleanrooms tailored for various industries including plastics, biopharmaceuticals, and medical research. Their cleanrooms support controlled environments essential for high-quality plastic manufacturing and biopharma production, offering customizable solutions such as HardWall and RigidWall cleanrooms with ISO Class 5-8 classifications.</t>
+          <t>NaturePlast is a leading European bioplastics expert established in 2007, specializing in the design, production, and marketing of bio-based and biodegradable plastic solutions. The company maintains one of Europe's broadest portfolios of bioplastic materials and develops over 200 new formulations annually. NaturePlast provides comprehensive support to industrial clients from project inception through commercialization, including material selection, formulation, characterization, and optimiza...</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Bio-based polymers, biodegradable polymers, starch-based materials, polymers from first-generation biomass (sugars, starch from cereals, sugar cane), materials incorporating industrial by-products (seashells, algae, agricultural waste)</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>Biopharmaceutical, plastics manufacturing, medical research, automotive, aerospace</t>
+          <t>Packaging, agriculture, paper, luxury goods, cosmetics, food processing</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3294,49 +3313,49 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/angstrom-technology/</t>
+          <t>https://www.linkedin.com/company/natureplast/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NaturePlast</t>
+          <t>TripleW</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>https://natureplast.eu/en/</t>
+          <t>https://www.triplew.co</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>NaturePlast is a leading European bioplastics expert established in 2007, specializing in the design, production, and marketing of bio-based and biodegradable plastic solutions. The company maintains one of Europe's broadest portfolios of bioplastic materials and develops over 200 new formulations annually. NaturePlast provides comprehensive support to industrial clients from project inception through commercialization, including material selection, formulation, characterization, and optimiza...</t>
+          <t>TripleW is a circular chemistry pioneer founded in 2016 that transforms food waste into lactic acid and bioplastics. The company uses advanced fermentation technology to convert food industry side streams into high-purity lactic acid (branded as Circulac®), which serves as a feedstock for producing PLA bioplastic and various personal care and home care products. In November 2025, TripleW launched the world's first commercial PLA bioplastic made entirely from food waste, achieving up to 75% lo...</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Bio-based polymers, biodegradable polymers, starch-based materials, polymers from first-generation biomass (sugars, starch from cereals, sugar cane), materials incorporating industrial by-products (seashells, algae, agricultural waste)</t>
+          <t>PLA (polylactic acid), lactic acid</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, paper, luxury goods, cosmetics, food processing</t>
+          <t>Packaging, personal care, home care, food and beverage, industrial applications</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3356,44 +3375,44 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/natureplast/</t>
+          <t>https://www.linkedin.com/company/triplew/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TripleW</t>
+          <t>Balrampur Chini Mills Limited</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>https://www.triplew.co</t>
+          <t>https://www.balrampurbioyug.com</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>TripleW is a circular chemistry pioneer founded in 2016 that transforms food waste into lactic acid and bioplastics. The company uses advanced fermentation technology to convert food industry side streams into high-purity lactic acid (branded as Circulac®), which serves as a feedstock for producing PLA bioplastic and various personal care and home care products. In November 2025, TripleW launched the world's first commercial PLA bioplastic made entirely from food waste, achieving up to 75% lo...</t>
+          <t>Balrampur Chini Mills Limited (BCML) is a leading Indian sugar producer that has launched India's first industrial-scale biopolymer plant for Poly Lactic Acid (PLA) under the brand Balrampur Bioyug. The company produces 100% biobased, industrially compostable PLA from sugarcane-derived feedstock, supporting a circular economy and offering sustainable alternatives to single-use plastics. BCML's PLA is used in packaging, food service ware, and other applications, with a focus on renewable energ...</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>PLA (polylactic acid), lactic acid</t>
+          <t>PLA</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>Packaging, personal care, home care, food and beverage, industrial applications</t>
+          <t>packaging, food service, medical, agriculture</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3403,24 +3422,24 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NSE:BCML</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/triplew/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills Limited</t>
+          <t>AgroRenew</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3430,27 +3449,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>https://www.balrampurbioyug.com</t>
+          <t>https://agrorenew.org</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>Balrampur Chini Mills Limited (BCML) is a leading Indian sugar producer that has launched India's first industrial-scale biopolymer plant for Poly Lactic Acid (PLA) under the brand Balrampur Bioyug. The company produces 100% biobased, industrially compostable PLA from sugarcane-derived feedstock, supporting a circular economy and offering sustainable alternatives to single-use plastics. BCML's PLA is used in packaging, food service ware, and other applications, with a focus on renewable energ...</t>
+          <t>AgroRenew is an innovative bioplastic producer based in Indiana, specializing in creating 100% biodegradable plastics from agricultural food waste such as watermelon, cantaloupe, and pumpkin waste. Founded by Brian and Katie Southern, the company operates a cutting-edge facility that transforms crop waste into biosource resin polymers, aiming to reduce plastic's environmental footprint and foster a circular economy.</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>PLA</t>
+          <t>Biodegradable plastics derived from crop food waste including watermelon, cantaloupe, pumpkin, and other biosources</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>packaging, food service, medical, agriculture</t>
+          <t>Packaging, agriculture, sustainable consumer goods</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3460,12 +3479,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NSE:BCML</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3477,7 +3491,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AgroRenew</t>
+          <t>Blue Circle Olefins</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3487,27 +3501,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>https://agrorenew.org</t>
+          <t>https://bluecircle-olefins.com</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>AgroRenew is an innovative bioplastic producer based in Indiana, specializing in creating 100% biodegradable plastics from agricultural food waste such as watermelon, cantaloupe, and pumpkin waste. Founded by Brian and Katie Southern, the company operates a cutting-edge facility that transforms crop waste into biosource resin polymers, aiming to reduce plastic's environmental footprint and foster a circular economy.</t>
+          <t>Blue Circle Olefins is developing the first circular methanol-to-olefins production plant in the Netherlands, aiming to produce 100% circular ethylene and propylene as drop-in replacements for fossil-based olefins. Their technology converts renewable methanol derived from biogas, bio-waste, mixed plastic waste, and green hydrogen with captured CO₂ into essential chemical building blocks for plastics, targeting an 80% reduction in lifecycle greenhouse gas emissions compared to traditional foss...</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Biodegradable plastics derived from crop food waste including watermelon, cantaloupe, pumpkin, and other biosources</t>
+          <t>Circular ethylene, circular propylene (produced from renewable methanol)</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>Packaging, agriculture, sustainable consumer goods</t>
+          <t>Packaging, chemical industry, plastics manufacturing</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3529,37 +3543,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins</t>
+          <t>Pro-Pickle</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>https://bluecircle-olefins.com</t>
+          <t>https://pro-pickle.com</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>Blue Circle Olefins is developing the first circular methanol-to-olefins production plant in the Netherlands, aiming to produce 100% circular ethylene and propylene as drop-in replacements for fossil-based olefins. Their technology converts renewable methanol derived from biogas, bio-waste, mixed plastic waste, and green hydrogen with captured CO₂ into essential chemical building blocks for plastics, targeting an 80% reduction in lifecycle greenhouse gas emissions compared to traditional foss...</t>
+          <t>Pro-Pickle, also known as Professional Pickleball Partners, is a company specializing in manufacturing customizable pickleball paddles and accessories with a focus on sustainability. They developed the world's first compostable pickleball, Compost-a-Ball™, made from a patented blend of wheat straw and rice husks, designed to break down within 100 days in composting environments while maintaining performance standards. The company aims to reduce plastic waste in the rapidly growing pickleball ...</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Circular ethylene, circular propylene (produced from renewable methanol)</t>
+          <t>Wheat straw, rice husk (biobased composite materials), polypropylene (in paddles)</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>Packaging, chemical industry, plastics manufacturing</t>
+          <t>Sports equipment (pickleball), recreational sports</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3581,37 +3595,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pro-Pickle</t>
+          <t>Radici Group</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Compounder</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>https://pro-pickle.com</t>
+          <t>https://www.radicigroup.com</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Pro-Pickle, also known as Professional Pickleball Partners, is a company specializing in manufacturing customizable pickleball paddles and accessories with a focus on sustainability. They developed the world's first compostable pickleball, Compost-a-Ball™, made from a patented blend of wheat straw and rice husks, designed to break down within 100 days in composting environments while maintaining performance standards. The company aims to reduce plastic waste in the rapidly growing pickleball ...</t>
+          <t>RadiciGroup is a diversified Italian chemical company specializing in the production of polyamide and polyester engineering polymers, chemical intermediates, and synthetic fibers. The company has strong vertical integration in polyamide production and focuses on high-performance polymers used in automotive, electrical/electronics, consumer goods, and industrial applications. RadiciGroup is also investing in biopolymer research and sustainability-driven innovation.</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Wheat straw, rice husk (biobased composite materials), polypropylene (in paddles)</t>
+          <t>Polyamide 6, Polyamide 6.6, Polyamide 6.10, Polyamide 6.12, Polyester (including Raditer®), Thermoplastic elastomers (Heraflex®), Acetal copolymers (Heraform®), Polyphenylene sulfide (Raditeck®), Recycled nylon 6 (Renycle®)</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>Sports equipment (pickleball), recreational sports</t>
+          <t>Automotive, Electrical/Electronics, Consumer Goods, Industrial Applications, Apparel, Sportswear, Furnishings, Home Appliances, Construction, Railways</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3627,43 +3641,53 @@
       <c r="K48" t="inlineStr">
         <is>
           <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/radicigroup</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@radicigroup</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Radici Group</t>
+          <t>Nexam Chemical</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Compounder</t>
+          <t>Additive Producer</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>https://www.radicigroup.com</t>
+          <t>https://www.nexamchemical.com</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>RadiciGroup is a diversified Italian chemical company specializing in the production of polyamide and polyester engineering polymers, chemical intermediates, and synthetic fibers. The company has strong vertical integration in polyamide production and focuses on high-performance polymers used in automotive, electrical/electronics, consumer goods, and industrial applications. RadiciGroup is also investing in biopolymer research and sustainability-driven innovation.</t>
+          <t>Nexam Chemical is a global leader in polymer additives that enhance the performance, sustainability, and recyclability of plastics. The company specializes in developing innovative additive technologies for various polymer types, with a focus on circular solutions including Reactive Recycling®, Lightweighting, High Temperature, and Aesthetics. Nexam has partnered with biotech companies to develop bio-based foam solutions, particularly PLA foam that matches the performance of traditional EPS p...</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Polyamide 6, Polyamide 6.6, Polyamide 6.10, Polyamide 6.12, Polyester (including Raditer®), Thermoplastic elastomers (Heraflex®), Acetal copolymers (Heraform®), Polyphenylene sulfide (Raditeck®), Recycled nylon 6 (Renycle®)</t>
+          <t>PLA (polylactic acid), general polymer additives for multiple polymer types</t>
         </is>
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>Automotive, Electrical/Electronics, Consumer Goods, Industrial Applications, Apparel, Sportswear, Furnishings, Home Appliances, Construction, Railways</t>
+          <t>Packaging, insulation, e-commerce, pipe manufacturing, foam production, high-performance plastics, food packaging</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3673,59 +3697,54 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NEXAM</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/radicigroup</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/@radicigroup</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nexam Chemical</t>
+          <t>Uluu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Additive Producer</t>
+          <t>Bioplastic Producer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>https://www.nexamchemical.com</t>
+          <t>https://www.uluu.com.au</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Nexam Chemical is a global leader in polymer additives that enhance the performance, sustainability, and recyclability of plastics. The company specializes in developing innovative additive technologies for various polymer types, with a focus on circular solutions including Reactive Recycling®, Lightweighting, High Temperature, and Aesthetics. Nexam has partnered with biotech companies to develop bio-based foam solutions, particularly PLA foam that matches the performance of traditional EPS p...</t>
+          <t>Uluu is an Australian bioplastic company founded in 2021 that transforms seaweed into polyhydroxyalkanoates (PHAs), a family of natural polymers produced through fermentation. The company's seaweed-based bioplastics are home compostable, marine biodegradable, and compatible with existing plastic manufacturing equipment. Uluu is scaling from pilot production to commercial volumes through a demonstration plant in Western Australia.</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>PLA (polylactic acid), general polymer additives for multiple polymer types</t>
+          <t>PHA (Polyhydroxyalkanoates), specifically PHBV (poly-3-hydroxybutyrate-co-3-hydroxyvalerate)</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>Packaging, insulation, e-commerce, pipe manufacturing, foam production, high-performance plastics, food packaging</t>
+          <t>Packaging, textiles, cosmetics, fashion, automotive</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3735,54 +3754,54 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NEXAM</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/uluu</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uluu</t>
+          <t>Renaissance BioScience</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bioplastic Producer</t>
+          <t>Technology Company</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>https://www.uluu.com.au</t>
+          <t>https://renaissancebioscience.com</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>Uluu is an Australian bioplastic company founded in 2021 that transforms seaweed into polyhydroxyalkanoates (PHAs), a family of natural polymers produced through fermentation. The company's seaweed-based bioplastics are home compostable, marine biodegradable, and compatible with existing plastic manufacturing equipment. Uluu is scaling from pilot production to commercial volumes through a demonstration plant in Western Australia.</t>
+          <t>Renaissance BioScience is a Canadian biotechnology company specializing in bioengineering yeast and microorganisms for sustainable solutions, including renewable bioplastics. The company partners with Biome Bioplastics to develop bio-based building blocks for bioplastics using advanced fermentation processes, targeting applications in packaging, personal care, health, and consumer goods. Their technology focuses on reducing dependence on fossil fuels and addressing plastic pollution through i...</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>PHA (Polyhydroxyalkanoates), specifically PHBV (poly-3-hydroxybutyrate-co-3-hydroxyvalerate)</t>
+          <t>Bio-based building blocks for bioplastics (fermentation-derived, not specific polymer types listed)</t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>Packaging, textiles, cosmetics, fashion, automotive</t>
+          <t>Packaging, Personal Care, Consumer Goods, Health</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3797,49 +3816,44 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/uluu</t>
+          <t>2025-11-19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Renaissance BioScience</t>
+          <t>Farrel Pomini</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Technology Company</t>
+          <t>Equipment Manufacturer</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>https://renaissancebioscience.com</t>
+          <t>https://www.farrel-pomini.com</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Renaissance BioScience is a Canadian biotechnology company specializing in bioengineering yeast and microorganisms for sustainable solutions, including renewable bioplastics. The company partners with Biome Bioplastics to develop bio-based building blocks for bioplastics using advanced fermentation processes, targeting applications in packaging, personal care, health, and consumer goods. Their technology focuses on reducing dependence on fossil fuels and addressing plastic pollution through i...</t>
+          <t>FARREL POMINI is the Continuous Mixer Business Unit of HF MIXING GROUP, specializing in the research, design, and manufacture of continuous mixing systems like the FCM™ for the polymer processing industry. They focus on compounding equipment for biodegradable plastics such as PLA, PHA, and PBS, addressing challenges like shear sensitivity and hydrolysis while maintaining polymer integrity. Their technology supports sustainable applications including mechanical and chemical recycling, pyrolysi...</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Bio-based building blocks for bioplastics (fermentation-derived, not specific polymer types listed)</t>
+          <t>PLA, PHA, PBS</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>Packaging, Personal Care, Consumer Goods, Health</t>
+          <t>packaging, recycling</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3854,73 +3868,2119 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2026-01-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Farrel Pomini</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
+          <t>ALPLA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Converter</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>https://www.alpla.com/en</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>ALPLA is a global leader in plastic packaging solutions, specializing in blow-moulded bottles, caps, injection-moulded parts, preforms, and tubes for various industries. The company emphasizes sustainability through its recycling division ALPLArecycling, processing rPET and rHDPE, and develops bio-based and biodegradable alternatives, including majority ownership of Paboco for paper bottles in series production since 2024. With 200 production sites in 46 countries, ALPLA focuses on innovative...</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>rPET, rHDPE, bio-based materials, biodegradable plastics</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>packaging (food, beverage, cosmetics, home care, pharmaceuticals)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Agilyx</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.agilyx.com</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Agilyx ASA is a technology provider specializing in advanced recycling solutions for plastic waste, particularly polystyrene through its proprietary Styrenyx depolymerization technology that converts waste into recycled styrene monomer. The company operates joint ventures like Cyclyx, which processes post-use plastic into high-quality feedstock for mechanical and advanced recycling, and Plastyx, supplying European-sourced feedstock to the advanced recycling industry. It licenses technology, s...</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Polystyrene (PS)</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>Packaging, Recycling</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>OSL:AGLX</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NTCP (National Test Centre Circular Plastics)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Testing/Certification Company</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>https://ntcp.nl</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>The National Test Centre Circular Plastics (NTCP) is a not-for-profit independent test and research center focused on accelerating circular plastics recycling. Located in Heerenveen, it features industrial-scale facilities for sorting, washing, shredding, and analyzing heterogeneous plastic waste streams from household sources. NTCP conducts applied testing, R&amp;D, and experiments with real waste to optimize the plastics value chain for stakeholders including brand owners, recyclers, and policy...</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Mixed plastic waste (rigid and film), post-consumer plastics</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>Packaging, recycling</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Avantium</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>https://www.avantium.com</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Avantium is a chemical technology company headquartered in Amsterdam, Netherlands, specializing in renewable chemistry and circular polymer materials from sustainable feedstocks like plant-based sugars and CO2. It develops and commercializes innovative technologies, with its lead product being PEF (polyethylene furanoate), a 100% plant-based, fully recyclable polymer offering superior performance to PET. Avantium operates R&amp;D labs, pilot plants, and a flagship FDCA plant, partnering globally ...</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>PEF, FDCA</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>AVTX.AS</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BIOWEG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>https://bioweg.com</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>BIOWEG is a German biotechnology company founded in 2019 that develops high-performance, biodegradable ingredients using precision fermentation and green chemistry to convert food-industry side streams into bacterial cellulose, serving as drop-in alternatives to fossil-based polymers and microplastics. Their products include Micbeads for cosmetics, RheoWeg for rheology control in personal and home care, and AgriWeg for seed and fertilizer coatings in agriculture. The company operates a pilot ...</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>bacterial cellulose</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>packaging, cosmetics, personal care, home care, agriculture</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Bakelite</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>https://bakelite.com</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Bakelite, invented in 1907 by Leo Baekeland, was the world's first fully synthetic plastic, a thermosetting phenol formaldehyde resin used in electrical insulators, consumer products, and industrial applications. The Bakelite Corporation, formed in 1910 and later merged in 1922, mass-produced this versatile material at its Bound Brook, New Jersey plant until its acquisition by Union Carbide in 1939. While not a modern bioplastic, its early synthetic nature from non-petroleum precursors positi...</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>phenol formaldehyde resin</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>packaging, electronics, automotive, consumer goods</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Acquired</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BioBTX</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>https://biobtx.com</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>BioBTX is a chemical technology development company based in Groningen, Netherlands, specializing in the production of renewable and biobased aromatic chemicals (BTX: benzene, toluene, xylenes) from waste plastics and biomass. The company has developed an integrated catalytic pyrolysis process that converts circular feedstocks into drop-in chemical building blocks, enabling a transition away from fossil-based resources in the chemical industry.</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>Not bioplastics; produces BTX (benzene, toluene, xylenes) from waste plastics and biomass</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>Chemical industry, petrochemical products (40% of all petrochemical products worldwide use BTX as building blocks)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CARBIOS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>https://www.carbios.com</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>CARBIOS is a biotechnology company developing and industrializing enzyme-based processes for the biorecycling of PET plastics and biodegradation of PLA. Inspired by nature, it aims to reinvent the lifecycle of plastics and textiles, avoiding pollution and accelerating the circular economy. Its technologies are reaching industrial scale, with a demonstration plant operational since 2021 and the first full-scale biorecycling plant planned for 2025.</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>PET, PLA</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>packaging, textiles, food &amp; beverage, cosmetics, apparel</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Euronext Growth:ALCRB</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/carbios</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/insidecarbios</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Wankai New Materials</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>http://www.wkai.cc</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Wankai New Materials Co., Ltd. is a leading Chinese producer of polyethylene terephthalate (PET) materials, including bottle-grade PET for packaging and specialized variants like bio-based polyester resins and PCR-PET resins. Headquartered in Haining City, Jiaxing, Zhejiang Province, the company focuses on R&amp;D, production, and sales of polyester chips for bottles, films, fibers, and photovoltaic applications. It is expanding into sustainable bioplastics through a joint venture with Carbios to...</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>PET, bio-based polyester resins, PCR-PET</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>packaging, films, fibers, photovoltaics</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SZSE:301216</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Carbon Cell</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>https://www.carboncell.co</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Carbon Cell develops a patent-pending, plastic-free expandable foam made from biochar and natural binders as a carbon-negative alternative to conventional polymer foams like EPS, EPP, and PUR/PIR. The material is lightweight, strong, thermally insulative, fully compostable, and serves as a drop-in replacement for existing manufacturing lines, locking in carbon for centuries. It targets persistent plastic waste issues in foams used for packaging and insulation.</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>Biochar-based foam, natural polymers</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>packaging, insulation</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Concordia University</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>https://www.concordia.ca</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Concordia University is a research institution in Montreal with advanced biomanufacturing facilities focused on synthetic biology and bioprocessing for sustainable products including bioplastics, greener chemicals, and biofuels.[1][3] Its Genome Foundry and Bioprocessing upgrades, funded by a $5M CFI investment, enable researchers to design microbial cells, test innovations, and scale bio-based alternatives to fossil fuel-derived materials.[2] The facilities support collaborations with SMEs a...</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Bioplastics (unspecified types)</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>Chemicals, agriculture, clean energy</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Emirates Biotech</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>https://emiratesbiotech.com</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Emirates Biotech is a leading manufacturer of high-quality PLA biopolymers in the Middle East, creating sustainable substitutes for traditional plastics. They produce the Embio product range of PLA grades suitable for rigid and flexible packaging, coated paper board, fibers, nonwovens, and 3D printing. The company is building the world's largest PLA production facility with 160,000 tonnes annual capacity using plant-based feedstocks, while providing expertise in application development, recyc...</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>PLA</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>packaging, fibers, nonwovens, 3D printing</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Erg Bio</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>https://ergbio.com</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Erg Bio is a biotechnology company that converts waste biomass into fermentable sugars, synthetic aviation fuels, and industrial chemicals using its proprietary ASPIRE™ (Advanced Solvent Pretreatment for Integrated BioREfinery) technology. The company processes over 40 different feedstocks including agricultural residues, forestry waste, and municipal solid waste to produce cost-competitive biofuels and biochemicals while supporting rural economies and supply chain resilience.</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Not bioplastics - produces fermentable sugars, synthetic aviation fuels, and industrial chemicals from biomass</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>Energy production, chemical manufacturing, aviation fuels, industrial supply chains</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>European Bioplastics (EUBP)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Testing/Certification Company</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>https://www.european-bioplastics.org</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>European Bioplastics (EUBP) is a European association representing the interests of the bioplastics industry. It advocates for biobased, biodegradable, and compostable plastics through policy engagement with EU institutions. EUBP maintains headquarters in Berlin with a strategic office in Brussels, and organizes the annual European Bioplastics Conference while conducting research and innovation projects.</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>Biobased plastics, biodegradable plastics, compostable plastics (EN 13432 certified)</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>Policy advocacy, industry representation, research and innovation, standardization</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FORVIA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>https://www.forvia.com/en</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>FORVIA is an automotive technology group formed in 2022 from the merger of Faurecia and HELLA. The company develops sustainable materials and composites for automotive applications, including bio-based and recycled materials through its Materi'act brand. FORVIA specializes in biocomposite materials like NAFILean (hemp fiber composites) and natural fiber-reinforced polypropylene (NFPP) that reduce CO₂ emissions and weight in vehicle interiors and components.</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Bio-based composites (hemp fiber), natural fiber-reinforced polypropylene (NFPP), recycled plastics, bio-based compounds, carbon-capturing compounds</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Automotive (primary), vehicle interiors, seating, lighting, electronics, clean mobility</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>EURONEXT:FRVIA</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Greenitio</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Additive Producer</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>https://greenitio.com</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Greenitio develops high-performance, bio-based specialty ingredients that replace petrochemical and microplastic-based materials in cosmetics and personal care using a patented green chemistry platform. Their proprietary products, such as vegan chitosan-derived CHITOBE and CHITOBELA, offer multifunctional benefits including moisturizing, anti-aging, SPF boosting, emulsifying, and thickening while being biodegradable and cost-effective. The company leverages AI-powered molecular design to crea...</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>vegan chitosan, biopolymers (CHITOBE, CHITOBELA)</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>cosmetics, personal care, skin care, hair care</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Lenzing Group</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>https://www.lenzing.com</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>The Lenzing Group is a leading producer of specialty cellulosic fibers from renewable wood-based materials, including TENCEL™ Lyocell, LENZING™ Modal, and LENZING™ Viscose, which are fully biodegradable in soil, compost, fresh water, and marine environments. These fibers support sustainable applications in textiles, nonwovens, hygiene products, and emerging food packaging solutions. Lenzing drives circular economy innovations through closed-loop production and partnerships for recycled and up...</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Lyocell, Modal, Viscose, cellulosic fibers</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>textiles, nonwovens, hygiene, agriculture, packaging</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VIE:LNZ</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/lenzing_group</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/lenzing-ag</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/user/LenzingGroup</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lenzing_group</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lubrizol</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Additive Producer</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>https://www.lubrizol.com</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Lubrizol Corporation is an American specialty chemicals company founded in 1928 that produces additives and ingredients for various industries including transportation, personal care, pharmaceuticals, and engineered polymers. The company develops bio-based and biodegradable solutions, including bio-based thermoplastic polyurethane (TPU) and biodegradable polymers like Carbopol® BioSense for sustainable applications across multiple market segments.</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>Bio-based TPU (ESTANE® ECO, Pearlthane™ ECO), Carbopol® BioSense polymer, engineered polymers, thermoplastic polyurethane (TPU)</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>Automotive, personal care, pharmaceuticals, medical devices, footwear, adhesives, additive manufacturing, textiles, coatings, industrial applications</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/@Lubrizol</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Northeast Forestry University and Shenyang University of Chemical Technology</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Northeast Forestry University and Shenyang University of Chemical Technology are academic institutions collaborating on bioplastic research, developing high-strength, biodegradable plastic from bamboo cellulose using a non-toxic alcohol solvent process.[1][2][3] The material matches or exceeds petroleum-based plastics in tensile strength, thermal stability, and moldability, biodegrades fully in soil within 50 days, and retains 90% strength after recycling.[1][2][3] It targets applications in ...</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Bamboo cellulose-based bioplastic</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Automotive, appliances, construction, packaging, engineering</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P2 Science</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>https://p2science.com</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>P2 Science is a green chemistry technology company that develops proprietary processes like PIOz™ and PICE to convert renewable feedstocks such as pine tree oil and algae-derived oils into high-performance chemical intermediates and sustainable liquid polymers. These biobased materials serve as alternatives to petroleum-based ingredients in personal care, performance materials, and polymers, enabling biodegradable polyurethanes and other eco-friendly solutions. The company focuses on industri...</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>bio-polyurethanes, PICE polymers, plant-based liquid polymers</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>personal care, cosmetics, fragrances, performance materials, textiles, footwear, apparel, coatings, adhesives</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Power2Polymers</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>https://www.power2polymers.com</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Power2Polymers pioneers sustainable, high-performance polymer products for specialty applications including lubricants, industrial adhesives, and sealants. The company leverages innovative EU and US-patented technology that integrates a novel building block called Polyoxymethylene (POM) into base polymers, reducing product carbon footprint by 40% while offering performance advantages such as better material compatibility and potential alternatives to harmful PFAS chemicals.</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Polyoxymethylene (POM)-based polymers</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>Lubricants, industrial adhesives, sealants, packaging, coatings</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RIKEN Center for Emergent Matter Science (CEMS)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>https://www.riken.jp/en/research/labs/cems/</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>The RIKEN Center for Emergent Matter Science (CEMS) conducts research on advanced bioplastic materials, focusing on biopolyesters produced by microorganisms and novel polymers from biomass resources. Their work includes molecular design methodologies to predict properties and efficient synthesis technologies for high-performance, environmentally conscious bioplastics. Recent developments feature supramolecular plastics that are strong, recyclable, and fully degradable in seawater to prevent m...</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>Biopolyesters, bio-polythioesters, supramolecular polymers, biomass-based polymers</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>Packaging</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Renaissance BioScience and Biome Bioplastics</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>https://biomebioplastics.com</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Biome Bioplastics is a leading UK-based developer of innovative bio-based plastics aimed at challenging and replacing oil-based polymers with high-performance, plant-based bioplastics that are 100% biodegradable and compostable. The company specializes in intelligent natural plastics suitable for both short-life disposable products and long-life durable applications, with ongoing R&amp;D to improve performance and reduce costs. In collaboration with Renaissance BioScience, it is developing renewa...</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>plant-based bioplastics, bio-based plastics</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>packaging, personal care, health, consumer goods</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rutgers University</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rutgers.edu</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Rutgers University is a research institution conducting advanced research in bioplastics and sustainable materials. Key initiatives include developing biodegradable polymers for medical applications, creating plant-based food packaging coatings, and engineering plastics that self-destruct at programmed speeds. The university also hosts spin-out companies like RenewCO2 that commercialize bioplastic technologies.</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Biodegradable polymers, plant-based biopolymers, polymer-peptide conjugates, carbon-derived plastic monomers</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>Medical devices, tissue engineering, food packaging, pharmaceutical delivery systems</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TIPA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>https://tipa-corp.com</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>TIPA, founded in 2010, develops and manufactures fully compostable flexible packaging solutions that mimic the performance of conventional plastics in durability, transparency, barrier properties, sealability, printability, and shelf-life while degrading like organic waste in industrial or home compost within 6-12 months. The company specializes in high-barrier films and laminates for food applications such as dry food, fresh produce, meat, and coffee, as well as fashion items like polybags, ...</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Compostable films, multi-ply laminates, high-barrier compostable materials</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>packaging (food, fashion)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>https://totalenergies-corbion.com</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>TotalEnergies Corbion is a 50/50 joint venture between TotalEnergies and Corbion, headquartered in the Netherlands, and a global leader in producing Luminy® PLA (polylactic acid), a bio-based and compostable polymer from renewable resources like sugarcane, offering a lower carbon footprint than traditional plastics. The company operates a 75,000 tons/year PLA facility in Rayong, Thailand, with plans for a second 100,000 tons/year plant in Grandpuits, France, and pioneered the first commercial...</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>PLA, rPLA, lactide monomers</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>packaging, consumer goods, agriculture, automotive, electronics, textiles, 3D printing, injection molding</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>EcoPHA Biotech</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Biotechnology Company</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>https://ecopha.com</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>EcoPHA Biotech is an Australian biotechnology company specializing in PHA (polyhydroxyalkanoate) bioplastics produced via microbial fermentation using pongamia oil. The company develops fully biodegradable and marine-biodegradable materials for food service, packaging, and industrial applications.</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>PHA (Polyhydroxyalkanoate)</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>packaging, food service, industrial applications</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Terra Sol Studio</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Design and Product Development</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>https://terrasolstudio.com</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Terra Sol Studio is an Australian design studio specializing in sustainable product development and commercialization. Partnering with EcoPHA Biotech, the studio designs and brings to market innovative PHA-based consumer and industrial products including compostable food service items and sustainable packaging.</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>PHA, Bioplastics</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>design, product development, sustainable packaging</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Notpla</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>https://www.notpla.com</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Notpla is a sustainable packaging company that develops regenerative materials from seaweed and plants as alternatives to single-use plastics. Their products include edible liquid packaging like Ooho, takeaway box coatings, sachets, films, and paper, all designed to biodegrade naturally in weeks or be compostable. They serve foodservice, e-commerce, and takeaway sectors, having replaced millions of plastic items through partnerships like Just Eat and events such as the London Marathon.</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>seaweed-based, plant-based</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>packaging, foodservice</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/notpla</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/notpla</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Loliware</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>https://www.loliware.com</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>LOLIWARE Inc. is an award-winning materials tech company specializing in seaweed-derived bioplastics to replace single-use plastics. They produce high-performance, compostable products like Blue Ocean Straws, Cocktail Straws, and SEA Technology resins that are designed to disappear and be carbon negative at scale. The company focuses on enabling their technology for existing manufacturing infrastructure and seeks partnerships to scale production for a plastic-free future.</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>seaweed-based resins, SEA Tech™</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>packaging, hospitality</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sway</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>https://www.swaythefuture.com</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Sway is a California-based biomaterials company that harnesses seaweed's natural polymers to produce home-compostable replacements for single-use plastic packaging. Their products mimic plastic's performance while dropping into existing infrastructure, embodying circular economy principles by designing out waste and regenerating natural systems. Sway partners with coastal communities in Latin America for seaweed cultivation, promoting regenerative practices and ocean health.</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>Seaweed-based bioplastics</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Zerocircle</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>https://www.zerocircle.in</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Zerocircle is a material science company founded in 2020 that develops seaweed-based bioplastics as sustainable alternatives to petroleum-based plastics. The company produces 100% natural, fully biodegradable films, coatings, and wood-free paper derived from sustainably harvested seaweed. Their products are home-compostable, ocean-safe, and designed for applications across food packaging, pharmaceuticals, fashion, and other industries.</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>Seaweed-based biopolymers (proprietary formulation)</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>Food packaging, pharmaceuticals, fashion, consumer goods, paper industry</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SK Chemicals</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>https://www.skchemicals.com/en/</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>SK Chemicals is a leading Korean biochemistry company specializing in eco-friendly materials, particularly transparent, heat-resistant copolyester and PLA (polylactic acid) bioplastics. The company was the first globally to commercialize circular recycled copolyester using chemically recycled raw materials in 2021 and is establishing a Recycle Innovation Center at its Ulsan plant for chemical decomposition of waste plastics. SK Chemicals also produces biopolyols from fermented corn for polyur...</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>Copolyester (BPA-free), PLA (polylactic acid), Biopolyols, Circular recycled copolyester, Circular recycled PET</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>Packaging, cosmetics, household goods, home appliances, food contact materials, automotive, electronics, fashion, textiles, polyurethane, spandex</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>KRX:011170</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CovationBio</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr"/>
+      <c r="F86" s="3" t="inlineStr"/>
+      <c r="G86" s="3" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BASF</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>https://www.basf.com</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>BASF is the world's leading chemical company with over 110,000 employees and approximately 380 production sites worldwide. As a pioneer in biopolymers for over 30 years, BASF produces certified compostable and bio-based polymers including ecoflex® and ecovio®. The company focuses on developing sustainable, high-performance bioplastics for packaging, agriculture, and electronics applications while advancing circular economy solutions.</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>PBAT, ecoflex® (polybutylene adipate terephthalate), ecovio® (PBAT/PLA blend), Ultramid® BMB (polyamides), Ultradur® BMB (polyesters)</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Packaging, agriculture, electrical and electronics, food contact applications, organic waste collection</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>XETRA:BAS</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Idemitsu Kosan</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr"/>
+      <c r="F88" s="3" t="inlineStr"/>
+      <c r="G88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FKuR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bioplastic Producer</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>https://www.fkur.com</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>FKuR Kunststoff GmbH is a leading developer and manufacturer of bio-based, biodegradable, and recyclable plastic compounds. Founded in 1992 as a development institute and incorporated in 2003, the company specializes in sustainable plastic solutions including bioplastics resins and recyclates. FKuR operates with a US subsidiary and offers consulting services on material selection, processing, and marketing for circular economy applications.</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>PLA, Bio-PE, Bio-PP, PHA, PVOH, starch-based compounds, TPE, Bio-TPE, EVA, WPC, natural fiber compounds</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>Flexible packaging, engineering applications, food contact applications, cosmetics accessories, protective equipment, water bottles, sustainable packaging solutions</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AIMPLAS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Technology Company</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>https://www.aimplas.net</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>AIMPLAS is a technology centre with over 35 years of experience in the plastics industry, located in Valencia, Spain. The organization provides R&amp;D solutions and technical assistance to companies throughout the plastics value chain, with specialized focus on sustainable materials, biodegradable plastics, recycling, and bioplastics development. AIMPLAS operates over 50 pilot plants and maintains accreditations for compostability testing and biodegradability certification.</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>Biodegradable plastics, compostable materials, recycled plastics, bio-based polymers</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>Packaging, food, cosmetics, personal hygiene, detergents, cleaning products, automotive, construction, textiles</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N2" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M3" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M4" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N4" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L5" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L6" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N6" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N7" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M8" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N8" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L10" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M10" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N11" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M12" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N12" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M16" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N17" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M18" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M20" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L21" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M21" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M22" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N22" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L23" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M23" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D24" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M24" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L25" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M25" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N27" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L28" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N29" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M30" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N30" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L31" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M32" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N32" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M33" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N33" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N34" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L35" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M35" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L36" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M36" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M38" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L39" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M39" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D52" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D53" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D54" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D55" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D56" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D57" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D58" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D59" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D60" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D61" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D62" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D63" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D64" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D65" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D66" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D67" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D68" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D69" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N69" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D70" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D72" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D73" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D74" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D75" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D76" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D77" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D78" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D79" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D80" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D81" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D82" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D83" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D84" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D85" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D87" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D89" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D90" r:id="rId135"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
